--- a/MVP_02/SHOPPING_LISTS/KNF.xlsx
+++ b/MVP_02/SHOPPING_LISTS/KNF.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -49,13 +49,22 @@
     <t>20-019452</t>
   </si>
   <si>
+    <t>20-019522</t>
+  </si>
+  <si>
     <t>MEMBRANE PUMP</t>
   </si>
   <si>
+    <t>OUTFLOW FILTER</t>
+  </si>
+  <si>
     <t>KNF</t>
   </si>
   <si>
     <t>NF5KPDCB-4 10-26.4V</t>
+  </si>
+  <si>
+    <t>FS60</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -430,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -440,13 +449,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -481,24 +490,44 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="1">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1">
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
         <v>1</v>
       </c>
     </row>
